--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value716.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value716.xlsx
@@ -354,7 +354,7 @@
         <v>2.170393407267034</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.81712154865538</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value716.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value716.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.277661368277748</v>
+        <v>1.761189579963684</v>
       </c>
       <c r="B1">
-        <v>2.170393407267034</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.748525142669678</v>
       </c>
       <c r="D1">
-        <v>1.81712154865538</v>
+        <v>1.158555746078491</v>
       </c>
       <c r="E1">
-        <v>0.9194922217601812</v>
+        <v>0.7895200252532959</v>
       </c>
     </row>
   </sheetData>
